--- a/labs/test-rgr.xlsx
+++ b/labs/test-rgr.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>№п/п</t>
   </si>
@@ -574,6 +574,67 @@
   </si>
   <si>
     <t>Расчётно-графическая работа</t>
+  </si>
+  <si>
+    <t>Критерий формы</t>
+  </si>
+  <si>
+    <t>Асимметрия А =</t>
+  </si>
+  <si>
+    <t>Эксцесса E =</t>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -751,7 +812,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -784,6 +845,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -793,17 +860,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1105,10 +1169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:IV50"/>
+  <dimension ref="A1:IV54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1"/>
@@ -1123,273 +1187,273 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="17"/>
-      <c r="AN1" s="17"/>
-      <c r="AO1" s="17"/>
-      <c r="AP1" s="17"/>
-      <c r="AQ1" s="17"/>
-      <c r="AR1" s="17"/>
-      <c r="AS1" s="17"/>
-      <c r="AT1" s="17"/>
-      <c r="AU1" s="17"/>
-      <c r="AV1" s="17"/>
-      <c r="AW1" s="17"/>
-      <c r="AX1" s="17"/>
-      <c r="AY1" s="17"/>
-      <c r="AZ1" s="17"/>
-      <c r="BA1" s="17"/>
-      <c r="BB1" s="17"/>
-      <c r="BC1" s="17"/>
-      <c r="BD1" s="17"/>
-      <c r="BE1" s="17"/>
-      <c r="BF1" s="17"/>
-      <c r="BG1" s="17"/>
-      <c r="BH1" s="17"/>
-      <c r="BI1" s="17"/>
-      <c r="BJ1" s="17"/>
-      <c r="BK1" s="17"/>
-      <c r="BL1" s="17"/>
-      <c r="BM1" s="17"/>
-      <c r="BN1" s="17"/>
-      <c r="BO1" s="17"/>
-      <c r="BP1" s="17"/>
-      <c r="BQ1" s="17"/>
-      <c r="BR1" s="17"/>
-      <c r="BS1" s="17"/>
-      <c r="BT1" s="17"/>
-      <c r="BU1" s="17"/>
-      <c r="BV1" s="17"/>
-      <c r="BW1" s="17"/>
-      <c r="BX1" s="17"/>
-      <c r="BY1" s="17"/>
-      <c r="BZ1" s="17"/>
-      <c r="CA1" s="17"/>
-      <c r="CB1" s="17"/>
-      <c r="CC1" s="17"/>
-      <c r="CD1" s="17"/>
-      <c r="CE1" s="17"/>
-      <c r="CF1" s="17"/>
-      <c r="CG1" s="17"/>
-      <c r="CH1" s="17"/>
-      <c r="CI1" s="17"/>
-      <c r="CJ1" s="17"/>
-      <c r="CK1" s="17"/>
-      <c r="CL1" s="17"/>
-      <c r="CM1" s="17"/>
-      <c r="CN1" s="17"/>
-      <c r="CO1" s="17"/>
-      <c r="CP1" s="17"/>
-      <c r="CQ1" s="17"/>
-      <c r="CR1" s="17"/>
-      <c r="CS1" s="17"/>
-      <c r="CT1" s="17"/>
-      <c r="CU1" s="17"/>
-      <c r="CV1" s="17"/>
-      <c r="CW1" s="17"/>
-      <c r="CX1" s="17"/>
-      <c r="CY1" s="17"/>
-      <c r="CZ1" s="17"/>
-      <c r="DA1" s="17"/>
-      <c r="DB1" s="17"/>
-      <c r="DC1" s="17"/>
-      <c r="DD1" s="17"/>
-      <c r="DE1" s="17"/>
-      <c r="DF1" s="17"/>
-      <c r="DG1" s="17"/>
-      <c r="DH1" s="17"/>
-      <c r="DI1" s="17"/>
-      <c r="DJ1" s="17"/>
-      <c r="DK1" s="17"/>
-      <c r="DL1" s="17"/>
-      <c r="DM1" s="17"/>
-      <c r="DN1" s="17"/>
-      <c r="DO1" s="17"/>
-      <c r="DP1" s="17"/>
-      <c r="DQ1" s="17"/>
-      <c r="DR1" s="17"/>
-      <c r="DS1" s="17"/>
-      <c r="DT1" s="17"/>
-      <c r="DU1" s="17"/>
-      <c r="DV1" s="17"/>
-      <c r="DW1" s="17"/>
-      <c r="DX1" s="17"/>
-      <c r="DY1" s="17"/>
-      <c r="DZ1" s="17"/>
-      <c r="EA1" s="17"/>
-      <c r="EB1" s="17"/>
-      <c r="EC1" s="17"/>
-      <c r="ED1" s="17"/>
-      <c r="EE1" s="17"/>
-      <c r="EF1" s="17"/>
-      <c r="EG1" s="17"/>
-      <c r="EH1" s="17"/>
-      <c r="EI1" s="17"/>
-      <c r="EJ1" s="17"/>
-      <c r="EK1" s="17"/>
-      <c r="EL1" s="17"/>
-      <c r="EM1" s="17"/>
-      <c r="EN1" s="17"/>
-      <c r="EO1" s="17"/>
-      <c r="EP1" s="17"/>
-      <c r="EQ1" s="17"/>
-      <c r="ER1" s="17"/>
-      <c r="ES1" s="17"/>
-      <c r="ET1" s="17"/>
-      <c r="EU1" s="17"/>
-      <c r="EV1" s="17"/>
-      <c r="EW1" s="17"/>
-      <c r="EX1" s="17"/>
-      <c r="EY1" s="17"/>
-      <c r="EZ1" s="17"/>
-      <c r="FA1" s="17"/>
-      <c r="FB1" s="17"/>
-      <c r="FC1" s="17"/>
-      <c r="FD1" s="17"/>
-      <c r="FE1" s="17"/>
-      <c r="FF1" s="17"/>
-      <c r="FG1" s="17"/>
-      <c r="FH1" s="17"/>
-      <c r="FI1" s="17"/>
-      <c r="FJ1" s="17"/>
-      <c r="FK1" s="17"/>
-      <c r="FL1" s="17"/>
-      <c r="FM1" s="17"/>
-      <c r="FN1" s="17"/>
-      <c r="FO1" s="17"/>
-      <c r="FP1" s="17"/>
-      <c r="FQ1" s="17"/>
-      <c r="FR1" s="17"/>
-      <c r="FS1" s="17"/>
-      <c r="FT1" s="17"/>
-      <c r="FU1" s="17"/>
-      <c r="FV1" s="17"/>
-      <c r="FW1" s="17"/>
-      <c r="FX1" s="17"/>
-      <c r="FY1" s="17"/>
-      <c r="FZ1" s="17"/>
-      <c r="GA1" s="17"/>
-      <c r="GB1" s="17"/>
-      <c r="GC1" s="17"/>
-      <c r="GD1" s="17"/>
-      <c r="GE1" s="17"/>
-      <c r="GF1" s="17"/>
-      <c r="GG1" s="17"/>
-      <c r="GH1" s="17"/>
-      <c r="GI1" s="17"/>
-      <c r="GJ1" s="17"/>
-      <c r="GK1" s="17"/>
-      <c r="GL1" s="17"/>
-      <c r="GM1" s="17"/>
-      <c r="GN1" s="17"/>
-      <c r="GO1" s="17"/>
-      <c r="GP1" s="17"/>
-      <c r="GQ1" s="17"/>
-      <c r="GR1" s="17"/>
-      <c r="GS1" s="17"/>
-      <c r="GT1" s="17"/>
-      <c r="GU1" s="17"/>
-      <c r="GV1" s="17"/>
-      <c r="GW1" s="17"/>
-      <c r="GX1" s="17"/>
-      <c r="GY1" s="17"/>
-      <c r="GZ1" s="17"/>
-      <c r="HA1" s="17"/>
-      <c r="HB1" s="17"/>
-      <c r="HC1" s="17"/>
-      <c r="HD1" s="17"/>
-      <c r="HE1" s="17"/>
-      <c r="HF1" s="17"/>
-      <c r="HG1" s="17"/>
-      <c r="HH1" s="17"/>
-      <c r="HI1" s="17"/>
-      <c r="HJ1" s="17"/>
-      <c r="HK1" s="17"/>
-      <c r="HL1" s="17"/>
-      <c r="HM1" s="17"/>
-      <c r="HN1" s="17"/>
-      <c r="HO1" s="17"/>
-      <c r="HP1" s="17"/>
-      <c r="HQ1" s="17"/>
-      <c r="HR1" s="17"/>
-      <c r="HS1" s="17"/>
-      <c r="HT1" s="17"/>
-      <c r="HU1" s="17"/>
-      <c r="HV1" s="17"/>
-      <c r="HW1" s="17"/>
-      <c r="HX1" s="17"/>
-      <c r="HY1" s="17"/>
-      <c r="HZ1" s="17"/>
-      <c r="IA1" s="17"/>
-      <c r="IB1" s="17"/>
-      <c r="IC1" s="17"/>
-      <c r="ID1" s="17"/>
-      <c r="IE1" s="17"/>
-      <c r="IF1" s="17"/>
-      <c r="IG1" s="17"/>
-      <c r="IH1" s="17"/>
-      <c r="II1" s="17"/>
-      <c r="IJ1" s="17"/>
-      <c r="IK1" s="17"/>
-      <c r="IL1" s="17"/>
-      <c r="IM1" s="17"/>
-      <c r="IN1" s="17"/>
-      <c r="IO1" s="17"/>
-      <c r="IP1" s="17"/>
-      <c r="IQ1" s="17"/>
-      <c r="IR1" s="17"/>
-      <c r="IS1" s="17"/>
-      <c r="IT1" s="17"/>
-      <c r="IU1" s="17"/>
-      <c r="IV1" s="17"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="16"/>
+      <c r="AQ1" s="16"/>
+      <c r="AR1" s="16"/>
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="16"/>
+      <c r="AU1" s="16"/>
+      <c r="AV1" s="16"/>
+      <c r="AW1" s="16"/>
+      <c r="AX1" s="16"/>
+      <c r="AY1" s="16"/>
+      <c r="AZ1" s="16"/>
+      <c r="BA1" s="16"/>
+      <c r="BB1" s="16"/>
+      <c r="BC1" s="16"/>
+      <c r="BD1" s="16"/>
+      <c r="BE1" s="16"/>
+      <c r="BF1" s="16"/>
+      <c r="BG1" s="16"/>
+      <c r="BH1" s="16"/>
+      <c r="BI1" s="16"/>
+      <c r="BJ1" s="16"/>
+      <c r="BK1" s="16"/>
+      <c r="BL1" s="16"/>
+      <c r="BM1" s="16"/>
+      <c r="BN1" s="16"/>
+      <c r="BO1" s="16"/>
+      <c r="BP1" s="16"/>
+      <c r="BQ1" s="16"/>
+      <c r="BR1" s="16"/>
+      <c r="BS1" s="16"/>
+      <c r="BT1" s="16"/>
+      <c r="BU1" s="16"/>
+      <c r="BV1" s="16"/>
+      <c r="BW1" s="16"/>
+      <c r="BX1" s="16"/>
+      <c r="BY1" s="16"/>
+      <c r="BZ1" s="16"/>
+      <c r="CA1" s="16"/>
+      <c r="CB1" s="16"/>
+      <c r="CC1" s="16"/>
+      <c r="CD1" s="16"/>
+      <c r="CE1" s="16"/>
+      <c r="CF1" s="16"/>
+      <c r="CG1" s="16"/>
+      <c r="CH1" s="16"/>
+      <c r="CI1" s="16"/>
+      <c r="CJ1" s="16"/>
+      <c r="CK1" s="16"/>
+      <c r="CL1" s="16"/>
+      <c r="CM1" s="16"/>
+      <c r="CN1" s="16"/>
+      <c r="CO1" s="16"/>
+      <c r="CP1" s="16"/>
+      <c r="CQ1" s="16"/>
+      <c r="CR1" s="16"/>
+      <c r="CS1" s="16"/>
+      <c r="CT1" s="16"/>
+      <c r="CU1" s="16"/>
+      <c r="CV1" s="16"/>
+      <c r="CW1" s="16"/>
+      <c r="CX1" s="16"/>
+      <c r="CY1" s="16"/>
+      <c r="CZ1" s="16"/>
+      <c r="DA1" s="16"/>
+      <c r="DB1" s="16"/>
+      <c r="DC1" s="16"/>
+      <c r="DD1" s="16"/>
+      <c r="DE1" s="16"/>
+      <c r="DF1" s="16"/>
+      <c r="DG1" s="16"/>
+      <c r="DH1" s="16"/>
+      <c r="DI1" s="16"/>
+      <c r="DJ1" s="16"/>
+      <c r="DK1" s="16"/>
+      <c r="DL1" s="16"/>
+      <c r="DM1" s="16"/>
+      <c r="DN1" s="16"/>
+      <c r="DO1" s="16"/>
+      <c r="DP1" s="16"/>
+      <c r="DQ1" s="16"/>
+      <c r="DR1" s="16"/>
+      <c r="DS1" s="16"/>
+      <c r="DT1" s="16"/>
+      <c r="DU1" s="16"/>
+      <c r="DV1" s="16"/>
+      <c r="DW1" s="16"/>
+      <c r="DX1" s="16"/>
+      <c r="DY1" s="16"/>
+      <c r="DZ1" s="16"/>
+      <c r="EA1" s="16"/>
+      <c r="EB1" s="16"/>
+      <c r="EC1" s="16"/>
+      <c r="ED1" s="16"/>
+      <c r="EE1" s="16"/>
+      <c r="EF1" s="16"/>
+      <c r="EG1" s="16"/>
+      <c r="EH1" s="16"/>
+      <c r="EI1" s="16"/>
+      <c r="EJ1" s="16"/>
+      <c r="EK1" s="16"/>
+      <c r="EL1" s="16"/>
+      <c r="EM1" s="16"/>
+      <c r="EN1" s="16"/>
+      <c r="EO1" s="16"/>
+      <c r="EP1" s="16"/>
+      <c r="EQ1" s="16"/>
+      <c r="ER1" s="16"/>
+      <c r="ES1" s="16"/>
+      <c r="ET1" s="16"/>
+      <c r="EU1" s="16"/>
+      <c r="EV1" s="16"/>
+      <c r="EW1" s="16"/>
+      <c r="EX1" s="16"/>
+      <c r="EY1" s="16"/>
+      <c r="EZ1" s="16"/>
+      <c r="FA1" s="16"/>
+      <c r="FB1" s="16"/>
+      <c r="FC1" s="16"/>
+      <c r="FD1" s="16"/>
+      <c r="FE1" s="16"/>
+      <c r="FF1" s="16"/>
+      <c r="FG1" s="16"/>
+      <c r="FH1" s="16"/>
+      <c r="FI1" s="16"/>
+      <c r="FJ1" s="16"/>
+      <c r="FK1" s="16"/>
+      <c r="FL1" s="16"/>
+      <c r="FM1" s="16"/>
+      <c r="FN1" s="16"/>
+      <c r="FO1" s="16"/>
+      <c r="FP1" s="16"/>
+      <c r="FQ1" s="16"/>
+      <c r="FR1" s="16"/>
+      <c r="FS1" s="16"/>
+      <c r="FT1" s="16"/>
+      <c r="FU1" s="16"/>
+      <c r="FV1" s="16"/>
+      <c r="FW1" s="16"/>
+      <c r="FX1" s="16"/>
+      <c r="FY1" s="16"/>
+      <c r="FZ1" s="16"/>
+      <c r="GA1" s="16"/>
+      <c r="GB1" s="16"/>
+      <c r="GC1" s="16"/>
+      <c r="GD1" s="16"/>
+      <c r="GE1" s="16"/>
+      <c r="GF1" s="16"/>
+      <c r="GG1" s="16"/>
+      <c r="GH1" s="16"/>
+      <c r="GI1" s="16"/>
+      <c r="GJ1" s="16"/>
+      <c r="GK1" s="16"/>
+      <c r="GL1" s="16"/>
+      <c r="GM1" s="16"/>
+      <c r="GN1" s="16"/>
+      <c r="GO1" s="16"/>
+      <c r="GP1" s="16"/>
+      <c r="GQ1" s="16"/>
+      <c r="GR1" s="16"/>
+      <c r="GS1" s="16"/>
+      <c r="GT1" s="16"/>
+      <c r="GU1" s="16"/>
+      <c r="GV1" s="16"/>
+      <c r="GW1" s="16"/>
+      <c r="GX1" s="16"/>
+      <c r="GY1" s="16"/>
+      <c r="GZ1" s="16"/>
+      <c r="HA1" s="16"/>
+      <c r="HB1" s="16"/>
+      <c r="HC1" s="16"/>
+      <c r="HD1" s="16"/>
+      <c r="HE1" s="16"/>
+      <c r="HF1" s="16"/>
+      <c r="HG1" s="16"/>
+      <c r="HH1" s="16"/>
+      <c r="HI1" s="16"/>
+      <c r="HJ1" s="16"/>
+      <c r="HK1" s="16"/>
+      <c r="HL1" s="16"/>
+      <c r="HM1" s="16"/>
+      <c r="HN1" s="16"/>
+      <c r="HO1" s="16"/>
+      <c r="HP1" s="16"/>
+      <c r="HQ1" s="16"/>
+      <c r="HR1" s="16"/>
+      <c r="HS1" s="16"/>
+      <c r="HT1" s="16"/>
+      <c r="HU1" s="16"/>
+      <c r="HV1" s="16"/>
+      <c r="HW1" s="16"/>
+      <c r="HX1" s="16"/>
+      <c r="HY1" s="16"/>
+      <c r="HZ1" s="16"/>
+      <c r="IA1" s="16"/>
+      <c r="IB1" s="16"/>
+      <c r="IC1" s="16"/>
+      <c r="ID1" s="16"/>
+      <c r="IE1" s="16"/>
+      <c r="IF1" s="16"/>
+      <c r="IG1" s="16"/>
+      <c r="IH1" s="16"/>
+      <c r="II1" s="16"/>
+      <c r="IJ1" s="16"/>
+      <c r="IK1" s="16"/>
+      <c r="IL1" s="16"/>
+      <c r="IM1" s="16"/>
+      <c r="IN1" s="16"/>
+      <c r="IO1" s="16"/>
+      <c r="IP1" s="16"/>
+      <c r="IQ1" s="16"/>
+      <c r="IR1" s="16"/>
+      <c r="IS1" s="16"/>
+      <c r="IT1" s="16"/>
+      <c r="IU1" s="16"/>
+      <c r="IV1" s="16"/>
     </row>
     <row r="2" spans="1:256" s="10" customFormat="1" ht="18">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
     </row>
@@ -1397,7 +1461,7 @@
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1410,7 +1474,7 @@
       <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1421,7 +1485,7 @@
       <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1432,7 +1496,7 @@
       <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1443,7 +1507,7 @@
       <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1454,7 +1518,7 @@
       <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1465,7 +1529,7 @@
       <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1478,7 +1542,7 @@
       <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
@@ -1489,7 +1553,7 @@
       <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="11"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
@@ -1500,7 +1564,7 @@
       <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="12"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="3" t="s">
         <v>15</v>
       </c>
@@ -1511,7 +1575,7 @@
       <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1524,7 +1588,7 @@
       <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="B14" s="11"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="3" t="s">
         <v>18</v>
       </c>
@@ -1535,7 +1599,7 @@
       <c r="A15" s="9">
         <v>13</v>
       </c>
-      <c r="B15" s="11"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="3" t="s">
         <v>19</v>
       </c>
@@ -1546,7 +1610,7 @@
       <c r="A16" s="9">
         <v>14</v>
       </c>
-      <c r="B16" s="12"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="3" t="s">
         <v>20</v>
       </c>
@@ -1557,7 +1621,7 @@
       <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -1570,7 +1634,7 @@
       <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="11"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="3" t="s">
         <v>23</v>
       </c>
@@ -1581,7 +1645,7 @@
       <c r="A19" s="9">
         <v>17</v>
       </c>
-      <c r="B19" s="11"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="3" t="s">
         <v>24</v>
       </c>
@@ -1592,7 +1656,7 @@
       <c r="A20" s="9">
         <v>18</v>
       </c>
-      <c r="B20" s="11"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="3" t="s">
         <v>25</v>
       </c>
@@ -1603,7 +1667,7 @@
       <c r="A21" s="9">
         <v>19</v>
       </c>
-      <c r="B21" s="12"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="3" t="s">
         <v>26</v>
       </c>
@@ -1614,7 +1678,7 @@
       <c r="A22" s="9">
         <v>20</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="15" t="s">
         <v>27</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -1627,7 +1691,7 @@
       <c r="A23" s="9">
         <v>21</v>
       </c>
-      <c r="B23" s="11"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="3" t="s">
         <v>29</v>
       </c>
@@ -1638,7 +1702,7 @@
       <c r="A24" s="9">
         <v>22</v>
       </c>
-      <c r="B24" s="11"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="3" t="s">
         <v>2</v>
       </c>
@@ -1649,7 +1713,7 @@
       <c r="A25" s="9">
         <v>23</v>
       </c>
-      <c r="B25" s="11"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="3" t="s">
         <v>30</v>
       </c>
@@ -1660,7 +1724,7 @@
       <c r="A26" s="9">
         <v>24</v>
       </c>
-      <c r="B26" s="11"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="3" t="s">
         <v>31</v>
       </c>
@@ -1671,7 +1735,7 @@
       <c r="A27" s="9">
         <v>25</v>
       </c>
-      <c r="B27" s="12"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="3" t="s">
         <v>32</v>
       </c>
@@ -1682,7 +1746,7 @@
       <c r="A28" s="9">
         <v>26</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -1695,7 +1759,7 @@
       <c r="A29" s="9">
         <v>27</v>
       </c>
-      <c r="B29" s="11"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="3" t="s">
         <v>35</v>
       </c>
@@ -1706,7 +1770,7 @@
       <c r="A30" s="9">
         <v>28</v>
       </c>
-      <c r="B30" s="12"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="3" t="s">
         <v>14</v>
       </c>
@@ -1717,7 +1781,7 @@
       <c r="A31" s="9">
         <v>29</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -1730,7 +1794,7 @@
       <c r="A32" s="9">
         <v>30</v>
       </c>
-      <c r="B32" s="11"/>
+      <c r="B32" s="13"/>
       <c r="C32" s="3" t="s">
         <v>38</v>
       </c>
@@ -1741,7 +1805,7 @@
       <c r="A33" s="9">
         <v>31</v>
       </c>
-      <c r="B33" s="12"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="3" t="s">
         <v>39</v>
       </c>
@@ -1749,171 +1813,217 @@
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" s="10" customFormat="1" ht="18">
-      <c r="A34" s="9">
+      <c r="A34" s="11">
         <v>32</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>40</v>
+      <c r="B34" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" s="10" customFormat="1" ht="18">
-      <c r="A35" s="9">
+      <c r="A35" s="11">
         <v>33</v>
       </c>
-      <c r="B35" s="11"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="3" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="10" customFormat="1" ht="18">
-      <c r="A36" s="9">
+    <row r="36" spans="1:5" s="10" customFormat="1" ht="20.399999999999999">
+      <c r="A36" s="11">
         <v>34</v>
       </c>
-      <c r="B36" s="11"/>
+      <c r="B36" s="13"/>
       <c r="C36" s="3" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" ht="18">
-      <c r="A37" s="9">
+    <row r="37" spans="1:5" s="10" customFormat="1" ht="20.399999999999999">
+      <c r="A37" s="11">
         <v>35</v>
       </c>
-      <c r="B37" s="11"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" s="10" customFormat="1" ht="18">
+      <c r="A38" s="11">
+        <v>36</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" s="10" customFormat="1" ht="18">
+      <c r="A39" s="11">
+        <v>37</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" s="10" customFormat="1" ht="18">
+      <c r="A40" s="11">
+        <v>38</v>
+      </c>
+      <c r="B40" s="13"/>
+      <c r="C40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" ht="18">
+      <c r="A41" s="11">
+        <v>39</v>
+      </c>
+      <c r="B41" s="13"/>
+      <c r="C41" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="7"/>
-    </row>
-    <row r="38" spans="1:5" ht="18">
-      <c r="A38" s="9">
-        <v>36</v>
-      </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="3" t="s">
+      <c r="D41" s="6"/>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="1:5" ht="18">
+      <c r="A42" s="11">
+        <v>40</v>
+      </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="7"/>
-    </row>
-    <row r="39" spans="1:5" ht="18">
-      <c r="A39" s="9">
-        <v>37</v>
-      </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="3" t="s">
+      <c r="D42" s="6"/>
+      <c r="E42" s="7"/>
+    </row>
+    <row r="43" spans="1:5" ht="18">
+      <c r="A43" s="11">
+        <v>41</v>
+      </c>
+      <c r="B43" s="13"/>
+      <c r="C43" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="7"/>
-    </row>
-    <row r="40" spans="1:5" ht="18">
-      <c r="A40" s="9">
-        <v>38</v>
-      </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="3" t="s">
+      <c r="D43" s="6"/>
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" spans="1:5" ht="18">
+      <c r="A44" s="11">
+        <v>42</v>
+      </c>
+      <c r="B44" s="13"/>
+      <c r="C44" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="7"/>
-    </row>
-    <row r="41" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A41" s="9">
-        <v>39</v>
-      </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="3" t="s">
+      <c r="D44" s="6"/>
+      <c r="E44" s="7"/>
+    </row>
+    <row r="45" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A45" s="11">
+        <v>43</v>
+      </c>
+      <c r="B45" s="13"/>
+      <c r="C45" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" ht="18">
-      <c r="A42" s="9">
-        <v>40</v>
-      </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" ht="18">
-      <c r="A43" s="9">
-        <v>41</v>
-      </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" ht="18">
-      <c r="A44" s="9">
-        <v>42</v>
-      </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" ht="18">
-      <c r="A45" s="9">
-        <v>43</v>
-      </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A46" s="9">
+    <row r="46" spans="1:5" ht="18">
+      <c r="A46" s="11">
         <v>44</v>
       </c>
-      <c r="B46" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>55</v>
+      <c r="B46" s="13"/>
+      <c r="C46" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" ht="18">
-      <c r="A47" s="9">
+      <c r="A47" s="11">
         <v>45</v>
       </c>
-      <c r="B47" s="11"/>
+      <c r="B47" s="13"/>
       <c r="C47" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:5" hidden="1"/>
-    <row r="49" hidden="1"/>
-    <row r="50" hidden="1"/>
+    <row r="48" spans="1:5" ht="18">
+      <c r="A48" s="11">
+        <v>46</v>
+      </c>
+      <c r="B48" s="13"/>
+      <c r="C48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" ht="18">
+      <c r="A49" s="11">
+        <v>47</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A50" s="11">
+        <v>48</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" ht="18">
+      <c r="A51" s="11">
+        <v>49</v>
+      </c>
+      <c r="B51" s="13"/>
+      <c r="C51" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" hidden="1"/>
+    <row r="53" spans="1:5" hidden="1"/>
+    <row r="54" spans="1:5" hidden="1"/>
   </sheetData>
   <sheetProtection password="CC93" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="11">
-    <mergeCell ref="B34:B45"/>
-    <mergeCell ref="B46:B47"/>
+  <mergeCells count="12">
+    <mergeCell ref="B38:B49"/>
+    <mergeCell ref="B50:B51"/>
     <mergeCell ref="A1:IV1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:B8"/>
@@ -1923,6 +2033,7 @@
     <mergeCell ref="B22:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1938,264 +2049,264 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="14"/>
-      <c r="AI1" s="14"/>
-      <c r="AJ1" s="14"/>
-      <c r="AK1" s="14"/>
-      <c r="AL1" s="14"/>
-      <c r="AM1" s="14"/>
-      <c r="AN1" s="14"/>
-      <c r="AO1" s="14"/>
-      <c r="AP1" s="14"/>
-      <c r="AQ1" s="14"/>
-      <c r="AR1" s="14"/>
-      <c r="AS1" s="14"/>
-      <c r="AT1" s="14"/>
-      <c r="AU1" s="14"/>
-      <c r="AV1" s="14"/>
-      <c r="AW1" s="14"/>
-      <c r="AX1" s="14"/>
-      <c r="AY1" s="14"/>
-      <c r="AZ1" s="14"/>
-      <c r="BA1" s="14"/>
-      <c r="BB1" s="14"/>
-      <c r="BC1" s="14"/>
-      <c r="BD1" s="14"/>
-      <c r="BE1" s="14"/>
-      <c r="BF1" s="14"/>
-      <c r="BG1" s="14"/>
-      <c r="BH1" s="14"/>
-      <c r="BI1" s="14"/>
-      <c r="BJ1" s="14"/>
-      <c r="BK1" s="14"/>
-      <c r="BL1" s="14"/>
-      <c r="BM1" s="14"/>
-      <c r="BN1" s="14"/>
-      <c r="BO1" s="14"/>
-      <c r="BP1" s="14"/>
-      <c r="BQ1" s="14"/>
-      <c r="BR1" s="14"/>
-      <c r="BS1" s="14"/>
-      <c r="BT1" s="14"/>
-      <c r="BU1" s="14"/>
-      <c r="BV1" s="14"/>
-      <c r="BW1" s="14"/>
-      <c r="BX1" s="14"/>
-      <c r="BY1" s="14"/>
-      <c r="BZ1" s="14"/>
-      <c r="CA1" s="14"/>
-      <c r="CB1" s="14"/>
-      <c r="CC1" s="14"/>
-      <c r="CD1" s="14"/>
-      <c r="CE1" s="14"/>
-      <c r="CF1" s="14"/>
-      <c r="CG1" s="14"/>
-      <c r="CH1" s="14"/>
-      <c r="CI1" s="14"/>
-      <c r="CJ1" s="14"/>
-      <c r="CK1" s="14"/>
-      <c r="CL1" s="14"/>
-      <c r="CM1" s="14"/>
-      <c r="CN1" s="14"/>
-      <c r="CO1" s="14"/>
-      <c r="CP1" s="14"/>
-      <c r="CQ1" s="14"/>
-      <c r="CR1" s="14"/>
-      <c r="CS1" s="14"/>
-      <c r="CT1" s="14"/>
-      <c r="CU1" s="14"/>
-      <c r="CV1" s="14"/>
-      <c r="CW1" s="14"/>
-      <c r="CX1" s="14"/>
-      <c r="CY1" s="14"/>
-      <c r="CZ1" s="14"/>
-      <c r="DA1" s="14"/>
-      <c r="DB1" s="14"/>
-      <c r="DC1" s="14"/>
-      <c r="DD1" s="14"/>
-      <c r="DE1" s="14"/>
-      <c r="DF1" s="14"/>
-      <c r="DG1" s="14"/>
-      <c r="DH1" s="14"/>
-      <c r="DI1" s="14"/>
-      <c r="DJ1" s="14"/>
-      <c r="DK1" s="14"/>
-      <c r="DL1" s="14"/>
-      <c r="DM1" s="14"/>
-      <c r="DN1" s="14"/>
-      <c r="DO1" s="14"/>
-      <c r="DP1" s="14"/>
-      <c r="DQ1" s="14"/>
-      <c r="DR1" s="14"/>
-      <c r="DS1" s="14"/>
-      <c r="DT1" s="14"/>
-      <c r="DU1" s="14"/>
-      <c r="DV1" s="14"/>
-      <c r="DW1" s="14"/>
-      <c r="DX1" s="14"/>
-      <c r="DY1" s="14"/>
-      <c r="DZ1" s="14"/>
-      <c r="EA1" s="14"/>
-      <c r="EB1" s="14"/>
-      <c r="EC1" s="14"/>
-      <c r="ED1" s="14"/>
-      <c r="EE1" s="14"/>
-      <c r="EF1" s="14"/>
-      <c r="EG1" s="14"/>
-      <c r="EH1" s="14"/>
-      <c r="EI1" s="14"/>
-      <c r="EJ1" s="14"/>
-      <c r="EK1" s="14"/>
-      <c r="EL1" s="14"/>
-      <c r="EM1" s="14"/>
-      <c r="EN1" s="14"/>
-      <c r="EO1" s="14"/>
-      <c r="EP1" s="14"/>
-      <c r="EQ1" s="14"/>
-      <c r="ER1" s="14"/>
-      <c r="ES1" s="14"/>
-      <c r="ET1" s="14"/>
-      <c r="EU1" s="14"/>
-      <c r="EV1" s="14"/>
-      <c r="EW1" s="14"/>
-      <c r="EX1" s="14"/>
-      <c r="EY1" s="14"/>
-      <c r="EZ1" s="14"/>
-      <c r="FA1" s="14"/>
-      <c r="FB1" s="14"/>
-      <c r="FC1" s="14"/>
-      <c r="FD1" s="14"/>
-      <c r="FE1" s="14"/>
-      <c r="FF1" s="14"/>
-      <c r="FG1" s="14"/>
-      <c r="FH1" s="14"/>
-      <c r="FI1" s="14"/>
-      <c r="FJ1" s="14"/>
-      <c r="FK1" s="14"/>
-      <c r="FL1" s="14"/>
-      <c r="FM1" s="14"/>
-      <c r="FN1" s="14"/>
-      <c r="FO1" s="14"/>
-      <c r="FP1" s="14"/>
-      <c r="FQ1" s="14"/>
-      <c r="FR1" s="14"/>
-      <c r="FS1" s="14"/>
-      <c r="FT1" s="14"/>
-      <c r="FU1" s="14"/>
-      <c r="FV1" s="14"/>
-      <c r="FW1" s="14"/>
-      <c r="FX1" s="14"/>
-      <c r="FY1" s="14"/>
-      <c r="FZ1" s="14"/>
-      <c r="GA1" s="14"/>
-      <c r="GB1" s="14"/>
-      <c r="GC1" s="14"/>
-      <c r="GD1" s="14"/>
-      <c r="GE1" s="14"/>
-      <c r="GF1" s="14"/>
-      <c r="GG1" s="14"/>
-      <c r="GH1" s="14"/>
-      <c r="GI1" s="14"/>
-      <c r="GJ1" s="14"/>
-      <c r="GK1" s="14"/>
-      <c r="GL1" s="14"/>
-      <c r="GM1" s="14"/>
-      <c r="GN1" s="14"/>
-      <c r="GO1" s="14"/>
-      <c r="GP1" s="14"/>
-      <c r="GQ1" s="14"/>
-      <c r="GR1" s="14"/>
-      <c r="GS1" s="14"/>
-      <c r="GT1" s="14"/>
-      <c r="GU1" s="14"/>
-      <c r="GV1" s="14"/>
-      <c r="GW1" s="14"/>
-      <c r="GX1" s="14"/>
-      <c r="GY1" s="14"/>
-      <c r="GZ1" s="14"/>
-      <c r="HA1" s="14"/>
-      <c r="HB1" s="14"/>
-      <c r="HC1" s="14"/>
-      <c r="HD1" s="14"/>
-      <c r="HE1" s="14"/>
-      <c r="HF1" s="14"/>
-      <c r="HG1" s="14"/>
-      <c r="HH1" s="14"/>
-      <c r="HI1" s="14"/>
-      <c r="HJ1" s="14"/>
-      <c r="HK1" s="14"/>
-      <c r="HL1" s="14"/>
-      <c r="HM1" s="14"/>
-      <c r="HN1" s="14"/>
-      <c r="HO1" s="14"/>
-      <c r="HP1" s="14"/>
-      <c r="HQ1" s="14"/>
-      <c r="HR1" s="14"/>
-      <c r="HS1" s="14"/>
-      <c r="HT1" s="14"/>
-      <c r="HU1" s="14"/>
-      <c r="HV1" s="14"/>
-      <c r="HW1" s="14"/>
-      <c r="HX1" s="14"/>
-      <c r="HY1" s="14"/>
-      <c r="HZ1" s="14"/>
-      <c r="IA1" s="14"/>
-      <c r="IB1" s="14"/>
-      <c r="IC1" s="14"/>
-      <c r="ID1" s="14"/>
-      <c r="IE1" s="14"/>
-      <c r="IF1" s="14"/>
-      <c r="IG1" s="14"/>
-      <c r="IH1" s="14"/>
-      <c r="II1" s="14"/>
-      <c r="IJ1" s="14"/>
-      <c r="IK1" s="14"/>
-      <c r="IL1" s="14"/>
-      <c r="IM1" s="14"/>
-      <c r="IN1" s="14"/>
-      <c r="IO1" s="14"/>
-      <c r="IP1" s="14"/>
-      <c r="IQ1" s="14"/>
-      <c r="IR1" s="14"/>
-      <c r="IS1" s="14"/>
-      <c r="IT1" s="14"/>
-      <c r="IU1" s="14"/>
-      <c r="IV1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="18"/>
+      <c r="AM1" s="18"/>
+      <c r="AN1" s="18"/>
+      <c r="AO1" s="18"/>
+      <c r="AP1" s="18"/>
+      <c r="AQ1" s="18"/>
+      <c r="AR1" s="18"/>
+      <c r="AS1" s="18"/>
+      <c r="AT1" s="18"/>
+      <c r="AU1" s="18"/>
+      <c r="AV1" s="18"/>
+      <c r="AW1" s="18"/>
+      <c r="AX1" s="18"/>
+      <c r="AY1" s="18"/>
+      <c r="AZ1" s="18"/>
+      <c r="BA1" s="18"/>
+      <c r="BB1" s="18"/>
+      <c r="BC1" s="18"/>
+      <c r="BD1" s="18"/>
+      <c r="BE1" s="18"/>
+      <c r="BF1" s="18"/>
+      <c r="BG1" s="18"/>
+      <c r="BH1" s="18"/>
+      <c r="BI1" s="18"/>
+      <c r="BJ1" s="18"/>
+      <c r="BK1" s="18"/>
+      <c r="BL1" s="18"/>
+      <c r="BM1" s="18"/>
+      <c r="BN1" s="18"/>
+      <c r="BO1" s="18"/>
+      <c r="BP1" s="18"/>
+      <c r="BQ1" s="18"/>
+      <c r="BR1" s="18"/>
+      <c r="BS1" s="18"/>
+      <c r="BT1" s="18"/>
+      <c r="BU1" s="18"/>
+      <c r="BV1" s="18"/>
+      <c r="BW1" s="18"/>
+      <c r="BX1" s="18"/>
+      <c r="BY1" s="18"/>
+      <c r="BZ1" s="18"/>
+      <c r="CA1" s="18"/>
+      <c r="CB1" s="18"/>
+      <c r="CC1" s="18"/>
+      <c r="CD1" s="18"/>
+      <c r="CE1" s="18"/>
+      <c r="CF1" s="18"/>
+      <c r="CG1" s="18"/>
+      <c r="CH1" s="18"/>
+      <c r="CI1" s="18"/>
+      <c r="CJ1" s="18"/>
+      <c r="CK1" s="18"/>
+      <c r="CL1" s="18"/>
+      <c r="CM1" s="18"/>
+      <c r="CN1" s="18"/>
+      <c r="CO1" s="18"/>
+      <c r="CP1" s="18"/>
+      <c r="CQ1" s="18"/>
+      <c r="CR1" s="18"/>
+      <c r="CS1" s="18"/>
+      <c r="CT1" s="18"/>
+      <c r="CU1" s="18"/>
+      <c r="CV1" s="18"/>
+      <c r="CW1" s="18"/>
+      <c r="CX1" s="18"/>
+      <c r="CY1" s="18"/>
+      <c r="CZ1" s="18"/>
+      <c r="DA1" s="18"/>
+      <c r="DB1" s="18"/>
+      <c r="DC1" s="18"/>
+      <c r="DD1" s="18"/>
+      <c r="DE1" s="18"/>
+      <c r="DF1" s="18"/>
+      <c r="DG1" s="18"/>
+      <c r="DH1" s="18"/>
+      <c r="DI1" s="18"/>
+      <c r="DJ1" s="18"/>
+      <c r="DK1" s="18"/>
+      <c r="DL1" s="18"/>
+      <c r="DM1" s="18"/>
+      <c r="DN1" s="18"/>
+      <c r="DO1" s="18"/>
+      <c r="DP1" s="18"/>
+      <c r="DQ1" s="18"/>
+      <c r="DR1" s="18"/>
+      <c r="DS1" s="18"/>
+      <c r="DT1" s="18"/>
+      <c r="DU1" s="18"/>
+      <c r="DV1" s="18"/>
+      <c r="DW1" s="18"/>
+      <c r="DX1" s="18"/>
+      <c r="DY1" s="18"/>
+      <c r="DZ1" s="18"/>
+      <c r="EA1" s="18"/>
+      <c r="EB1" s="18"/>
+      <c r="EC1" s="18"/>
+      <c r="ED1" s="18"/>
+      <c r="EE1" s="18"/>
+      <c r="EF1" s="18"/>
+      <c r="EG1" s="18"/>
+      <c r="EH1" s="18"/>
+      <c r="EI1" s="18"/>
+      <c r="EJ1" s="18"/>
+      <c r="EK1" s="18"/>
+      <c r="EL1" s="18"/>
+      <c r="EM1" s="18"/>
+      <c r="EN1" s="18"/>
+      <c r="EO1" s="18"/>
+      <c r="EP1" s="18"/>
+      <c r="EQ1" s="18"/>
+      <c r="ER1" s="18"/>
+      <c r="ES1" s="18"/>
+      <c r="ET1" s="18"/>
+      <c r="EU1" s="18"/>
+      <c r="EV1" s="18"/>
+      <c r="EW1" s="18"/>
+      <c r="EX1" s="18"/>
+      <c r="EY1" s="18"/>
+      <c r="EZ1" s="18"/>
+      <c r="FA1" s="18"/>
+      <c r="FB1" s="18"/>
+      <c r="FC1" s="18"/>
+      <c r="FD1" s="18"/>
+      <c r="FE1" s="18"/>
+      <c r="FF1" s="18"/>
+      <c r="FG1" s="18"/>
+      <c r="FH1" s="18"/>
+      <c r="FI1" s="18"/>
+      <c r="FJ1" s="18"/>
+      <c r="FK1" s="18"/>
+      <c r="FL1" s="18"/>
+      <c r="FM1" s="18"/>
+      <c r="FN1" s="18"/>
+      <c r="FO1" s="18"/>
+      <c r="FP1" s="18"/>
+      <c r="FQ1" s="18"/>
+      <c r="FR1" s="18"/>
+      <c r="FS1" s="18"/>
+      <c r="FT1" s="18"/>
+      <c r="FU1" s="18"/>
+      <c r="FV1" s="18"/>
+      <c r="FW1" s="18"/>
+      <c r="FX1" s="18"/>
+      <c r="FY1" s="18"/>
+      <c r="FZ1" s="18"/>
+      <c r="GA1" s="18"/>
+      <c r="GB1" s="18"/>
+      <c r="GC1" s="18"/>
+      <c r="GD1" s="18"/>
+      <c r="GE1" s="18"/>
+      <c r="GF1" s="18"/>
+      <c r="GG1" s="18"/>
+      <c r="GH1" s="18"/>
+      <c r="GI1" s="18"/>
+      <c r="GJ1" s="18"/>
+      <c r="GK1" s="18"/>
+      <c r="GL1" s="18"/>
+      <c r="GM1" s="18"/>
+      <c r="GN1" s="18"/>
+      <c r="GO1" s="18"/>
+      <c r="GP1" s="18"/>
+      <c r="GQ1" s="18"/>
+      <c r="GR1" s="18"/>
+      <c r="GS1" s="18"/>
+      <c r="GT1" s="18"/>
+      <c r="GU1" s="18"/>
+      <c r="GV1" s="18"/>
+      <c r="GW1" s="18"/>
+      <c r="GX1" s="18"/>
+      <c r="GY1" s="18"/>
+      <c r="GZ1" s="18"/>
+      <c r="HA1" s="18"/>
+      <c r="HB1" s="18"/>
+      <c r="HC1" s="18"/>
+      <c r="HD1" s="18"/>
+      <c r="HE1" s="18"/>
+      <c r="HF1" s="18"/>
+      <c r="HG1" s="18"/>
+      <c r="HH1" s="18"/>
+      <c r="HI1" s="18"/>
+      <c r="HJ1" s="18"/>
+      <c r="HK1" s="18"/>
+      <c r="HL1" s="18"/>
+      <c r="HM1" s="18"/>
+      <c r="HN1" s="18"/>
+      <c r="HO1" s="18"/>
+      <c r="HP1" s="18"/>
+      <c r="HQ1" s="18"/>
+      <c r="HR1" s="18"/>
+      <c r="HS1" s="18"/>
+      <c r="HT1" s="18"/>
+      <c r="HU1" s="18"/>
+      <c r="HV1" s="18"/>
+      <c r="HW1" s="18"/>
+      <c r="HX1" s="18"/>
+      <c r="HY1" s="18"/>
+      <c r="HZ1" s="18"/>
+      <c r="IA1" s="18"/>
+      <c r="IB1" s="18"/>
+      <c r="IC1" s="18"/>
+      <c r="ID1" s="18"/>
+      <c r="IE1" s="18"/>
+      <c r="IF1" s="18"/>
+      <c r="IG1" s="18"/>
+      <c r="IH1" s="18"/>
+      <c r="II1" s="18"/>
+      <c r="IJ1" s="18"/>
+      <c r="IK1" s="18"/>
+      <c r="IL1" s="18"/>
+      <c r="IM1" s="18"/>
+      <c r="IN1" s="18"/>
+      <c r="IO1" s="18"/>
+      <c r="IP1" s="18"/>
+      <c r="IQ1" s="18"/>
+      <c r="IR1" s="18"/>
+      <c r="IS1" s="18"/>
+      <c r="IT1" s="18"/>
+      <c r="IU1" s="18"/>
+      <c r="IV1" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2214,264 +2325,264 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="14"/>
-      <c r="AI1" s="14"/>
-      <c r="AJ1" s="14"/>
-      <c r="AK1" s="14"/>
-      <c r="AL1" s="14"/>
-      <c r="AM1" s="14"/>
-      <c r="AN1" s="14"/>
-      <c r="AO1" s="14"/>
-      <c r="AP1" s="14"/>
-      <c r="AQ1" s="14"/>
-      <c r="AR1" s="14"/>
-      <c r="AS1" s="14"/>
-      <c r="AT1" s="14"/>
-      <c r="AU1" s="14"/>
-      <c r="AV1" s="14"/>
-      <c r="AW1" s="14"/>
-      <c r="AX1" s="14"/>
-      <c r="AY1" s="14"/>
-      <c r="AZ1" s="14"/>
-      <c r="BA1" s="14"/>
-      <c r="BB1" s="14"/>
-      <c r="BC1" s="14"/>
-      <c r="BD1" s="14"/>
-      <c r="BE1" s="14"/>
-      <c r="BF1" s="14"/>
-      <c r="BG1" s="14"/>
-      <c r="BH1" s="14"/>
-      <c r="BI1" s="14"/>
-      <c r="BJ1" s="14"/>
-      <c r="BK1" s="14"/>
-      <c r="BL1" s="14"/>
-      <c r="BM1" s="14"/>
-      <c r="BN1" s="14"/>
-      <c r="BO1" s="14"/>
-      <c r="BP1" s="14"/>
-      <c r="BQ1" s="14"/>
-      <c r="BR1" s="14"/>
-      <c r="BS1" s="14"/>
-      <c r="BT1" s="14"/>
-      <c r="BU1" s="14"/>
-      <c r="BV1" s="14"/>
-      <c r="BW1" s="14"/>
-      <c r="BX1" s="14"/>
-      <c r="BY1" s="14"/>
-      <c r="BZ1" s="14"/>
-      <c r="CA1" s="14"/>
-      <c r="CB1" s="14"/>
-      <c r="CC1" s="14"/>
-      <c r="CD1" s="14"/>
-      <c r="CE1" s="14"/>
-      <c r="CF1" s="14"/>
-      <c r="CG1" s="14"/>
-      <c r="CH1" s="14"/>
-      <c r="CI1" s="14"/>
-      <c r="CJ1" s="14"/>
-      <c r="CK1" s="14"/>
-      <c r="CL1" s="14"/>
-      <c r="CM1" s="14"/>
-      <c r="CN1" s="14"/>
-      <c r="CO1" s="14"/>
-      <c r="CP1" s="14"/>
-      <c r="CQ1" s="14"/>
-      <c r="CR1" s="14"/>
-      <c r="CS1" s="14"/>
-      <c r="CT1" s="14"/>
-      <c r="CU1" s="14"/>
-      <c r="CV1" s="14"/>
-      <c r="CW1" s="14"/>
-      <c r="CX1" s="14"/>
-      <c r="CY1" s="14"/>
-      <c r="CZ1" s="14"/>
-      <c r="DA1" s="14"/>
-      <c r="DB1" s="14"/>
-      <c r="DC1" s="14"/>
-      <c r="DD1" s="14"/>
-      <c r="DE1" s="14"/>
-      <c r="DF1" s="14"/>
-      <c r="DG1" s="14"/>
-      <c r="DH1" s="14"/>
-      <c r="DI1" s="14"/>
-      <c r="DJ1" s="14"/>
-      <c r="DK1" s="14"/>
-      <c r="DL1" s="14"/>
-      <c r="DM1" s="14"/>
-      <c r="DN1" s="14"/>
-      <c r="DO1" s="14"/>
-      <c r="DP1" s="14"/>
-      <c r="DQ1" s="14"/>
-      <c r="DR1" s="14"/>
-      <c r="DS1" s="14"/>
-      <c r="DT1" s="14"/>
-      <c r="DU1" s="14"/>
-      <c r="DV1" s="14"/>
-      <c r="DW1" s="14"/>
-      <c r="DX1" s="14"/>
-      <c r="DY1" s="14"/>
-      <c r="DZ1" s="14"/>
-      <c r="EA1" s="14"/>
-      <c r="EB1" s="14"/>
-      <c r="EC1" s="14"/>
-      <c r="ED1" s="14"/>
-      <c r="EE1" s="14"/>
-      <c r="EF1" s="14"/>
-      <c r="EG1" s="14"/>
-      <c r="EH1" s="14"/>
-      <c r="EI1" s="14"/>
-      <c r="EJ1" s="14"/>
-      <c r="EK1" s="14"/>
-      <c r="EL1" s="14"/>
-      <c r="EM1" s="14"/>
-      <c r="EN1" s="14"/>
-      <c r="EO1" s="14"/>
-      <c r="EP1" s="14"/>
-      <c r="EQ1" s="14"/>
-      <c r="ER1" s="14"/>
-      <c r="ES1" s="14"/>
-      <c r="ET1" s="14"/>
-      <c r="EU1" s="14"/>
-      <c r="EV1" s="14"/>
-      <c r="EW1" s="14"/>
-      <c r="EX1" s="14"/>
-      <c r="EY1" s="14"/>
-      <c r="EZ1" s="14"/>
-      <c r="FA1" s="14"/>
-      <c r="FB1" s="14"/>
-      <c r="FC1" s="14"/>
-      <c r="FD1" s="14"/>
-      <c r="FE1" s="14"/>
-      <c r="FF1" s="14"/>
-      <c r="FG1" s="14"/>
-      <c r="FH1" s="14"/>
-      <c r="FI1" s="14"/>
-      <c r="FJ1" s="14"/>
-      <c r="FK1" s="14"/>
-      <c r="FL1" s="14"/>
-      <c r="FM1" s="14"/>
-      <c r="FN1" s="14"/>
-      <c r="FO1" s="14"/>
-      <c r="FP1" s="14"/>
-      <c r="FQ1" s="14"/>
-      <c r="FR1" s="14"/>
-      <c r="FS1" s="14"/>
-      <c r="FT1" s="14"/>
-      <c r="FU1" s="14"/>
-      <c r="FV1" s="14"/>
-      <c r="FW1" s="14"/>
-      <c r="FX1" s="14"/>
-      <c r="FY1" s="14"/>
-      <c r="FZ1" s="14"/>
-      <c r="GA1" s="14"/>
-      <c r="GB1" s="14"/>
-      <c r="GC1" s="14"/>
-      <c r="GD1" s="14"/>
-      <c r="GE1" s="14"/>
-      <c r="GF1" s="14"/>
-      <c r="GG1" s="14"/>
-      <c r="GH1" s="14"/>
-      <c r="GI1" s="14"/>
-      <c r="GJ1" s="14"/>
-      <c r="GK1" s="14"/>
-      <c r="GL1" s="14"/>
-      <c r="GM1" s="14"/>
-      <c r="GN1" s="14"/>
-      <c r="GO1" s="14"/>
-      <c r="GP1" s="14"/>
-      <c r="GQ1" s="14"/>
-      <c r="GR1" s="14"/>
-      <c r="GS1" s="14"/>
-      <c r="GT1" s="14"/>
-      <c r="GU1" s="14"/>
-      <c r="GV1" s="14"/>
-      <c r="GW1" s="14"/>
-      <c r="GX1" s="14"/>
-      <c r="GY1" s="14"/>
-      <c r="GZ1" s="14"/>
-      <c r="HA1" s="14"/>
-      <c r="HB1" s="14"/>
-      <c r="HC1" s="14"/>
-      <c r="HD1" s="14"/>
-      <c r="HE1" s="14"/>
-      <c r="HF1" s="14"/>
-      <c r="HG1" s="14"/>
-      <c r="HH1" s="14"/>
-      <c r="HI1" s="14"/>
-      <c r="HJ1" s="14"/>
-      <c r="HK1" s="14"/>
-      <c r="HL1" s="14"/>
-      <c r="HM1" s="14"/>
-      <c r="HN1" s="14"/>
-      <c r="HO1" s="14"/>
-      <c r="HP1" s="14"/>
-      <c r="HQ1" s="14"/>
-      <c r="HR1" s="14"/>
-      <c r="HS1" s="14"/>
-      <c r="HT1" s="14"/>
-      <c r="HU1" s="14"/>
-      <c r="HV1" s="14"/>
-      <c r="HW1" s="14"/>
-      <c r="HX1" s="14"/>
-      <c r="HY1" s="14"/>
-      <c r="HZ1" s="14"/>
-      <c r="IA1" s="14"/>
-      <c r="IB1" s="14"/>
-      <c r="IC1" s="14"/>
-      <c r="ID1" s="14"/>
-      <c r="IE1" s="14"/>
-      <c r="IF1" s="14"/>
-      <c r="IG1" s="14"/>
-      <c r="IH1" s="14"/>
-      <c r="II1" s="14"/>
-      <c r="IJ1" s="14"/>
-      <c r="IK1" s="14"/>
-      <c r="IL1" s="14"/>
-      <c r="IM1" s="14"/>
-      <c r="IN1" s="14"/>
-      <c r="IO1" s="14"/>
-      <c r="IP1" s="14"/>
-      <c r="IQ1" s="14"/>
-      <c r="IR1" s="14"/>
-      <c r="IS1" s="14"/>
-      <c r="IT1" s="14"/>
-      <c r="IU1" s="14"/>
-      <c r="IV1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="18"/>
+      <c r="AM1" s="18"/>
+      <c r="AN1" s="18"/>
+      <c r="AO1" s="18"/>
+      <c r="AP1" s="18"/>
+      <c r="AQ1" s="18"/>
+      <c r="AR1" s="18"/>
+      <c r="AS1" s="18"/>
+      <c r="AT1" s="18"/>
+      <c r="AU1" s="18"/>
+      <c r="AV1" s="18"/>
+      <c r="AW1" s="18"/>
+      <c r="AX1" s="18"/>
+      <c r="AY1" s="18"/>
+      <c r="AZ1" s="18"/>
+      <c r="BA1" s="18"/>
+      <c r="BB1" s="18"/>
+      <c r="BC1" s="18"/>
+      <c r="BD1" s="18"/>
+      <c r="BE1" s="18"/>
+      <c r="BF1" s="18"/>
+      <c r="BG1" s="18"/>
+      <c r="BH1" s="18"/>
+      <c r="BI1" s="18"/>
+      <c r="BJ1" s="18"/>
+      <c r="BK1" s="18"/>
+      <c r="BL1" s="18"/>
+      <c r="BM1" s="18"/>
+      <c r="BN1" s="18"/>
+      <c r="BO1" s="18"/>
+      <c r="BP1" s="18"/>
+      <c r="BQ1" s="18"/>
+      <c r="BR1" s="18"/>
+      <c r="BS1" s="18"/>
+      <c r="BT1" s="18"/>
+      <c r="BU1" s="18"/>
+      <c r="BV1" s="18"/>
+      <c r="BW1" s="18"/>
+      <c r="BX1" s="18"/>
+      <c r="BY1" s="18"/>
+      <c r="BZ1" s="18"/>
+      <c r="CA1" s="18"/>
+      <c r="CB1" s="18"/>
+      <c r="CC1" s="18"/>
+      <c r="CD1" s="18"/>
+      <c r="CE1" s="18"/>
+      <c r="CF1" s="18"/>
+      <c r="CG1" s="18"/>
+      <c r="CH1" s="18"/>
+      <c r="CI1" s="18"/>
+      <c r="CJ1" s="18"/>
+      <c r="CK1" s="18"/>
+      <c r="CL1" s="18"/>
+      <c r="CM1" s="18"/>
+      <c r="CN1" s="18"/>
+      <c r="CO1" s="18"/>
+      <c r="CP1" s="18"/>
+      <c r="CQ1" s="18"/>
+      <c r="CR1" s="18"/>
+      <c r="CS1" s="18"/>
+      <c r="CT1" s="18"/>
+      <c r="CU1" s="18"/>
+      <c r="CV1" s="18"/>
+      <c r="CW1" s="18"/>
+      <c r="CX1" s="18"/>
+      <c r="CY1" s="18"/>
+      <c r="CZ1" s="18"/>
+      <c r="DA1" s="18"/>
+      <c r="DB1" s="18"/>
+      <c r="DC1" s="18"/>
+      <c r="DD1" s="18"/>
+      <c r="DE1" s="18"/>
+      <c r="DF1" s="18"/>
+      <c r="DG1" s="18"/>
+      <c r="DH1" s="18"/>
+      <c r="DI1" s="18"/>
+      <c r="DJ1" s="18"/>
+      <c r="DK1" s="18"/>
+      <c r="DL1" s="18"/>
+      <c r="DM1" s="18"/>
+      <c r="DN1" s="18"/>
+      <c r="DO1" s="18"/>
+      <c r="DP1" s="18"/>
+      <c r="DQ1" s="18"/>
+      <c r="DR1" s="18"/>
+      <c r="DS1" s="18"/>
+      <c r="DT1" s="18"/>
+      <c r="DU1" s="18"/>
+      <c r="DV1" s="18"/>
+      <c r="DW1" s="18"/>
+      <c r="DX1" s="18"/>
+      <c r="DY1" s="18"/>
+      <c r="DZ1" s="18"/>
+      <c r="EA1" s="18"/>
+      <c r="EB1" s="18"/>
+      <c r="EC1" s="18"/>
+      <c r="ED1" s="18"/>
+      <c r="EE1" s="18"/>
+      <c r="EF1" s="18"/>
+      <c r="EG1" s="18"/>
+      <c r="EH1" s="18"/>
+      <c r="EI1" s="18"/>
+      <c r="EJ1" s="18"/>
+      <c r="EK1" s="18"/>
+      <c r="EL1" s="18"/>
+      <c r="EM1" s="18"/>
+      <c r="EN1" s="18"/>
+      <c r="EO1" s="18"/>
+      <c r="EP1" s="18"/>
+      <c r="EQ1" s="18"/>
+      <c r="ER1" s="18"/>
+      <c r="ES1" s="18"/>
+      <c r="ET1" s="18"/>
+      <c r="EU1" s="18"/>
+      <c r="EV1" s="18"/>
+      <c r="EW1" s="18"/>
+      <c r="EX1" s="18"/>
+      <c r="EY1" s="18"/>
+      <c r="EZ1" s="18"/>
+      <c r="FA1" s="18"/>
+      <c r="FB1" s="18"/>
+      <c r="FC1" s="18"/>
+      <c r="FD1" s="18"/>
+      <c r="FE1" s="18"/>
+      <c r="FF1" s="18"/>
+      <c r="FG1" s="18"/>
+      <c r="FH1" s="18"/>
+      <c r="FI1" s="18"/>
+      <c r="FJ1" s="18"/>
+      <c r="FK1" s="18"/>
+      <c r="FL1" s="18"/>
+      <c r="FM1" s="18"/>
+      <c r="FN1" s="18"/>
+      <c r="FO1" s="18"/>
+      <c r="FP1" s="18"/>
+      <c r="FQ1" s="18"/>
+      <c r="FR1" s="18"/>
+      <c r="FS1" s="18"/>
+      <c r="FT1" s="18"/>
+      <c r="FU1" s="18"/>
+      <c r="FV1" s="18"/>
+      <c r="FW1" s="18"/>
+      <c r="FX1" s="18"/>
+      <c r="FY1" s="18"/>
+      <c r="FZ1" s="18"/>
+      <c r="GA1" s="18"/>
+      <c r="GB1" s="18"/>
+      <c r="GC1" s="18"/>
+      <c r="GD1" s="18"/>
+      <c r="GE1" s="18"/>
+      <c r="GF1" s="18"/>
+      <c r="GG1" s="18"/>
+      <c r="GH1" s="18"/>
+      <c r="GI1" s="18"/>
+      <c r="GJ1" s="18"/>
+      <c r="GK1" s="18"/>
+      <c r="GL1" s="18"/>
+      <c r="GM1" s="18"/>
+      <c r="GN1" s="18"/>
+      <c r="GO1" s="18"/>
+      <c r="GP1" s="18"/>
+      <c r="GQ1" s="18"/>
+      <c r="GR1" s="18"/>
+      <c r="GS1" s="18"/>
+      <c r="GT1" s="18"/>
+      <c r="GU1" s="18"/>
+      <c r="GV1" s="18"/>
+      <c r="GW1" s="18"/>
+      <c r="GX1" s="18"/>
+      <c r="GY1" s="18"/>
+      <c r="GZ1" s="18"/>
+      <c r="HA1" s="18"/>
+      <c r="HB1" s="18"/>
+      <c r="HC1" s="18"/>
+      <c r="HD1" s="18"/>
+      <c r="HE1" s="18"/>
+      <c r="HF1" s="18"/>
+      <c r="HG1" s="18"/>
+      <c r="HH1" s="18"/>
+      <c r="HI1" s="18"/>
+      <c r="HJ1" s="18"/>
+      <c r="HK1" s="18"/>
+      <c r="HL1" s="18"/>
+      <c r="HM1" s="18"/>
+      <c r="HN1" s="18"/>
+      <c r="HO1" s="18"/>
+      <c r="HP1" s="18"/>
+      <c r="HQ1" s="18"/>
+      <c r="HR1" s="18"/>
+      <c r="HS1" s="18"/>
+      <c r="HT1" s="18"/>
+      <c r="HU1" s="18"/>
+      <c r="HV1" s="18"/>
+      <c r="HW1" s="18"/>
+      <c r="HX1" s="18"/>
+      <c r="HY1" s="18"/>
+      <c r="HZ1" s="18"/>
+      <c r="IA1" s="18"/>
+      <c r="IB1" s="18"/>
+      <c r="IC1" s="18"/>
+      <c r="ID1" s="18"/>
+      <c r="IE1" s="18"/>
+      <c r="IF1" s="18"/>
+      <c r="IG1" s="18"/>
+      <c r="IH1" s="18"/>
+      <c r="II1" s="18"/>
+      <c r="IJ1" s="18"/>
+      <c r="IK1" s="18"/>
+      <c r="IL1" s="18"/>
+      <c r="IM1" s="18"/>
+      <c r="IN1" s="18"/>
+      <c r="IO1" s="18"/>
+      <c r="IP1" s="18"/>
+      <c r="IQ1" s="18"/>
+      <c r="IR1" s="18"/>
+      <c r="IS1" s="18"/>
+      <c r="IT1" s="18"/>
+      <c r="IU1" s="18"/>
+      <c r="IV1" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/labs/test-rgr.xlsx
+++ b/labs/test-rgr.xlsx
@@ -582,9 +582,6 @@
     <t>Асимметрия А =</t>
   </si>
   <si>
-    <t>Эксцесса E =</t>
-  </si>
-  <si>
     <r>
       <t>m</t>
     </r>
@@ -635,6 +632,9 @@
       </rPr>
       <t xml:space="preserve"> =</t>
     </r>
+  </si>
+  <si>
+    <t>Эксцесс E =</t>
   </si>
 </sst>
 </file>
@@ -1171,8 +1171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IV54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1"/>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="2"/>
@@ -1842,7 +1842,7 @@
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="2"/>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="2"/>
